--- a/Data_Kasus.xlsx
+++ b/Data_Kasus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Streamlit\stenv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61BAD4-07F9-47E8-A27E-EB83D2F89C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679A297-FBB4-48DB-8A50-01F1D7592A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9990" yWindow="1420" windowWidth="8590" windowHeight="7390" xr2:uid="{7A5AC0C6-8509-4455-B489-093D9B661CF9}"/>
   </bookViews>
@@ -98,42 +98,15 @@
     <t>Oklahoma, Amerika Serikat</t>
   </si>
   <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Turki</t>
-  </si>
-  <si>
     <t>Polandia</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
     <t>Swedia</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Prancis</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
     <t>Eropa</t>
   </si>
   <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
     <t>Slammer Worm attack</t>
   </si>
   <si>
@@ -176,7 +149,34 @@
     <t>Sofware Error</t>
   </si>
   <si>
-    <t>Negara</t>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>Alaska, Amerika Serikat</t>
+  </si>
+  <si>
+    <t>Istanbul, turki</t>
+  </si>
+  <si>
+    <t>Chicago, Amerika Serikat</t>
+  </si>
+  <si>
+    <t>Bandara Ban Gurion, Israel</t>
+  </si>
+  <si>
+    <t>Toulouse, Prancis</t>
+  </si>
+  <si>
+    <t>Albania, Amerika Serikat</t>
+  </si>
+  <si>
+    <t>Denver, Amerika Serikat</t>
+  </si>
+  <si>
+    <t>San Antonio, Amerika Serikat</t>
+  </si>
+  <si>
+    <t>Birmingham, Inggris Raya</t>
   </si>
 </sst>
 </file>
@@ -530,11 +530,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8812DC22-30E9-470E-A0A2-C33D1435B171}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -544,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -555,7 +558,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -569,10 +572,10 @@
         <v>2006</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -583,7 +586,7 @@
         <v>2008</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -597,7 +600,7 @@
         <v>2009</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -611,10 +614,10 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -625,7 +628,7 @@
         <v>2013</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -639,10 +642,10 @@
         <v>2015</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -653,10 +656,10 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -667,10 +670,10 @@
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -681,10 +684,10 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -695,10 +698,10 @@
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -709,10 +712,10 @@
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -723,13 +726,13 @@
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -737,10 +740,10 @@
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -751,10 +754,10 @@
         <v>2020</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -765,10 +768,10 @@
         <v>2020</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -779,10 +782,10 @@
         <v>2021</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>

--- a/Data_Kasus.xlsx
+++ b/Data_Kasus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Streamlit\stenv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679A297-FBB4-48DB-8A50-01F1D7592A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC20D0D-9A9C-4A0D-A8E0-B3F3D96B7FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1420" windowWidth="8590" windowHeight="7390" xr2:uid="{7A5AC0C6-8509-4455-B489-093D9B661CF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A5AC0C6-8509-4455-B489-093D9B661CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>Alaska, Amerika Serikat</t>
   </si>
   <si>
-    <t>Istanbul, turki</t>
-  </si>
-  <si>
     <t>Chicago, Amerika Serikat</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Birmingham, Inggris Raya</t>
+  </si>
+  <si>
+    <t>Istanbul, Turki</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8812DC22-30E9-470E-A0A2-C33D1435B171}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +617,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -659,7 +659,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -687,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -715,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -757,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -771,7 +771,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -785,7 +785,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
